--- a/biology/Histoire de la zoologie et de la botanique/Helen_Niña_Tappan_Loeblich/Helen_Niña_Tappan_Loeblich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Helen_Niña_Tappan_Loeblich/Helen_Niña_Tappan_Loeblich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Helen_Ni%C3%B1a_Tappan_Loeblich</t>
+          <t>Helen_Niña_Tappan_Loeblich</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helen Niña Tappan Loeblich (né le 12 octobre 1917 à Norman en Oklahoma ; décédé le 18 août 2004 à Anaheim en Californie) est une géologue et paléontologue américaine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Helen_Ni%C3%B1a_Tappan_Loeblich</t>
+          <t>Helen_Niña_Tappan_Loeblich</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Vie familiale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helen Tappan s'est mariée en 1939 au paléontologue Alfred R. Loeblich, Jr. (1914-1994)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen Tappan s'est mariée en 1939 au paléontologue Alfred R. Loeblich, Jr. (1914-1994).
 Leur fils, né en 1941, porte le nom d'Alfred R. Loeblich III.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Helen_Ni%C3%B1a_Tappan_Loeblich</t>
+          <t>Helen_Niña_Tappan_Loeblich</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Helen Tappan, "Protistan Phylogeny : Multiple Working Hypotheses", Taxon, Vol.23, No.2/3, May 1974, p.271-276. JSTOR:1218706
 (en) Helen Tappan, The Paleobiology of Plant Protists, W. H. Freeman, San Francisco, 1980, xxi + 1028 p.  (ISBN 0-7167-1109-5)
